--- a/sevenRMart/target/classes/Resources/testdata.xlsx
+++ b/sevenRMart/target/classes/Resources/testdata.xlsx
@@ -3,22 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064F2EFC-FA27-4DD3-A094-5EC165C37796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5A5125-40E4-4237-9892-D4F6EBDB900F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2628" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginData" sheetId="1" r:id="rId1"/>
-    <sheet name="pushNotificationInformation" sheetId="2" r:id="rId2"/>
-    <sheet name="listUsersData" sheetId="3" r:id="rId3"/>
-    <sheet name="hamBurgerMenuData" sheetId="4" r:id="rId4"/>
+    <sheet name="manageProductData" sheetId="5" r:id="rId2"/>
+    <sheet name="pushNotificationInformation" sheetId="2" r:id="rId3"/>
+    <sheet name="listUsersData" sheetId="3" r:id="rId4"/>
+    <sheet name="hamBurgerMenuData" sheetId="4" r:id="rId5"/>
+    <sheet name="manageUsersData" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>abc</t>
   </si>
@@ -32,9 +34,6 @@
     <t>50% off</t>
   </si>
   <si>
-    <t>Salu</t>
-  </si>
-  <si>
     <t>.........RESULT NOT FOUND.......</t>
   </si>
   <si>
@@ -54,6 +53,24 @@
   </si>
   <si>
     <t>Manage Offer Code</t>
+  </si>
+  <si>
+    <t>chilly chicken</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>rgba(0, 123, 255, 1)</t>
+  </si>
+  <si>
+    <t>rgb(255, 193, 7)</t>
+  </si>
+  <si>
+    <t>f#12</t>
+  </si>
+  <si>
+    <t>tester name</t>
   </si>
 </sst>
 </file>
@@ -467,6 +484,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B36CD1-21F5-41D4-B9BE-D11531CEEE56}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
@@ -489,12 +529,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -502,26 +542,30 @@
     <col min="1" max="1" width="36.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
+      <c r="B2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1DD3D6-4E89-4500-AF5A-47C469E4C6E9}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -537,26 +581,58 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81D793A3-03AA-4504-9E38-31C35CCE2B0D}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>